--- a/biology/Zoologie/Indirana/Indirana.xlsx
+++ b/biology/Zoologie/Indirana/Indirana.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Indirana est un genre d'amphibiens, le seul de la famille des Ranixalidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Indirana est un genre d'amphibiens, le seul de la famille des Ranixalidae.
 </t>
         </is>
       </c>
@@ -511,10 +523,12 @@
           <t>Répartition et habitat</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les 12 espèces de ce genre sont endémiques du Sud et du centre de l'Inde[1].
-Toutes les espèces sont terrestres et vivent dans la forêt tropicale humide. Certaines espèces vivent aussi dans les marécages[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les 12 espèces de ce genre sont endémiques du Sud et du centre de l'Inde.
+Toutes les espèces sont terrestres et vivent dans la forêt tropicale humide. Certaines espèces vivent aussi dans les marécages.
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon Amphibian Species of the World                      (14 septembre 2015)[3] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon Amphibian Species of the World                      (14 septembre 2015) :
 Indirana beddomii (Günther, 1876)
 Indirana brachytarsus (Günther, 1876)
 Indirana chiravasi Padhye, Modak &amp; Dahanukar, 2014
@@ -585,7 +601,9 @@
           <t>Publications originales</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Dubois, 1987 "1986" : Miscellanea taxinomica batrachologica (I). Alytes, vol. 5, no 1, p. 7-95 (« texte intégral »(Archive.org • Wikiwix • Archive.is • Google • Que faire ?)).
 Laurent, 1986 : Sous classe des lissamphibiens. Systématique. Traité de Zoologie, tome 14, fas. 1B, p. 594-797</t>
